--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1249.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1249.xlsx
@@ -351,7 +351,7 @@
         <v>2.197697336833491</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
         <v>2.240817523410049</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1249.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1249.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.197697336833491</v>
+        <v>1.214628577232361</v>
       </c>
       <c r="B1">
         <v>15</v>
       </c>
       <c r="C1">
-        <v>2.240817523410049</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>0.9872234921325763</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.6992002913952334</v>
+        <v>1.179950475692749</v>
       </c>
     </row>
   </sheetData>
